--- a/alphalib_financials_united_states.xlsx
+++ b/alphalib_financials_united_states.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>full Name</t>
+          <t>fullName</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
@@ -1741,9 +1741,12 @@
       <c r="B18" s="3" t="n">
         <v>44561</v>
       </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
         <v>93707000000</v>
       </c>
@@ -1753,6 +1756,8 @@
       <c r="I18" t="n">
         <v>1998000000</v>
       </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>31978000000</v>
       </c>
@@ -1762,12 +1767,15 @@
       <c r="N18" t="n">
         <v>31978000000</v>
       </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
         <v>33976000000</v>
       </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
         <v>6970000000</v>
       </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
         <v>52761000000</v>
       </c>
@@ -1808,9 +1816,12 @@
       <c r="B19" s="3" t="n">
         <v>44196</v>
       </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
         <v>74208000000</v>
       </c>
@@ -1820,6 +1831,8 @@
       <c r="I19" t="n">
         <v>1101000000</v>
       </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>17894000000</v>
       </c>
@@ -1829,12 +1842,15 @@
       <c r="N19" t="n">
         <v>17894000000</v>
       </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
         <v>18995000000</v>
       </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
         <v>6730000000</v>
       </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
         <v>48483000000</v>
       </c>
@@ -1875,9 +1891,12 @@
       <c r="B20" s="3" t="n">
         <v>43830</v>
       </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
         <v>85582000000</v>
       </c>
@@ -1887,6 +1906,8 @@
       <c r="I20" t="n">
         <v>5324000000</v>
       </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>27430000000</v>
       </c>
@@ -1896,12 +1917,15 @@
       <c r="N20" t="n">
         <v>27430000000</v>
       </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
         <v>32754000000</v>
       </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
         <v>6086000000</v>
       </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="n">
         <v>46742000000</v>
       </c>
@@ -1942,9 +1966,12 @@
       <c r="B21" s="3" t="n">
         <v>43465</v>
       </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>87738000000</v>
       </c>
@@ -1954,6 +1981,8 @@
       <c r="I21" t="n">
         <v>6437000000</v>
       </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>28147000000</v>
       </c>
@@ -1963,12 +1992,15 @@
       <c r="N21" t="n">
         <v>28147000000</v>
       </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
         <v>34584000000</v>
       </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
         <v>6966000000</v>
       </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
         <v>46188000000</v>
       </c>
@@ -1999,1480 +2031,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>BAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>79807000000</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>44561</v>
-      </c>
-      <c r="D22" t="n">
-        <v>36905000000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>89057000000</v>
-      </c>
-      <c r="H22" t="n">
-        <v>26947000000</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5468000000</v>
-      </c>
-      <c r="J22" t="n">
-        <v>-6884000000</v>
-      </c>
-      <c r="K22" t="n">
-        <v>17523000000</v>
-      </c>
-      <c r="L22" t="n">
-        <v>20081000000</v>
-      </c>
-      <c r="M22" t="n">
-        <v>19874000000</v>
-      </c>
-      <c r="N22" t="n">
-        <v>21479000000</v>
-      </c>
-      <c r="P22" t="n">
-        <v>36905000000</v>
-      </c>
-      <c r="T22" t="n">
-        <v>29290000000</v>
-      </c>
-      <c r="U22" t="n">
-        <v>131959000000</v>
-      </c>
-      <c r="V22" t="n">
-        <v>-9958000000</v>
-      </c>
-      <c r="W22" t="n">
-        <v>168864000000</v>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>AT&amp;T Inc</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>AT&amp;T</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>79920000000</v>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>44196</v>
-      </c>
-      <c r="D23" t="n">
-        <v>25656000000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>91840000000</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-2856000000</v>
-      </c>
-      <c r="I23" t="n">
-        <v>965000000</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-7925000000</v>
-      </c>
-      <c r="K23" t="n">
-        <v>17567000000</v>
-      </c>
-      <c r="L23" t="n">
-        <v>-5176000000</v>
-      </c>
-      <c r="M23" t="n">
-        <v>-5369000000</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-3821000000</v>
-      </c>
-      <c r="P23" t="n">
-        <v>25656000000</v>
-      </c>
-      <c r="T23" t="n">
-        <v>37668000000</v>
-      </c>
-      <c r="U23" t="n">
-        <v>146104000000</v>
-      </c>
-      <c r="V23" t="n">
-        <v>-28512000000</v>
-      </c>
-      <c r="W23" t="n">
-        <v>171760000000</v>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>AT&amp;T Inc</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>AT&amp;T</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>84141000000</v>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>43830</v>
-      </c>
-      <c r="D24" t="n">
-        <v>27741000000</v>
-      </c>
-      <c r="G24" t="n">
-        <v>97052000000</v>
-      </c>
-      <c r="H24" t="n">
-        <v>18468000000</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3493000000</v>
-      </c>
-      <c r="J24" t="n">
-        <v>-8422000000</v>
-      </c>
-      <c r="K24" t="n">
-        <v>17713000000</v>
-      </c>
-      <c r="L24" t="n">
-        <v>13903000000</v>
-      </c>
-      <c r="M24" t="n">
-        <v>13900000000</v>
-      </c>
-      <c r="N24" t="n">
-        <v>14975000000</v>
-      </c>
-      <c r="P24" t="n">
-        <v>27741000000</v>
-      </c>
-      <c r="T24" t="n">
-        <v>41094000000</v>
-      </c>
-      <c r="U24" t="n">
-        <v>153452000000</v>
-      </c>
-      <c r="V24" t="n">
-        <v>-9273000000</v>
-      </c>
-      <c r="W24" t="n">
-        <v>181193000000</v>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>AT&amp;T Inc</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>AT&amp;T</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>79419000000</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>43465</v>
-      </c>
-      <c r="D25" t="n">
-        <v>31618000000</v>
-      </c>
-      <c r="G25" t="n">
-        <v>91337000000</v>
-      </c>
-      <c r="H25" t="n">
-        <v>24873000000</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4920000000</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-7957000000</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9795000000</v>
-      </c>
-      <c r="L25" t="n">
-        <v>19370000000</v>
-      </c>
-      <c r="M25" t="n">
-        <v>19370000000</v>
-      </c>
-      <c r="N25" t="n">
-        <v>19953000000</v>
-      </c>
-      <c r="P25" t="n">
-        <v>31618000000</v>
-      </c>
-      <c r="T25" t="n">
-        <v>31289000000</v>
-      </c>
-      <c r="U25" t="n">
-        <v>139138000000</v>
-      </c>
-      <c r="V25" t="n">
-        <v>-6745000000</v>
-      </c>
-      <c r="W25" t="n">
-        <v>170756000000</v>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>AT&amp;T Inc</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>AT&amp;T</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>37782000000</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>44561</v>
-      </c>
-      <c r="D26" t="n">
-        <v>8274000000</v>
-      </c>
-      <c r="G26" t="n">
-        <v>13189000000</v>
-      </c>
-      <c r="H26" t="n">
-        <v>8235000000</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1742000000</v>
-      </c>
-      <c r="J26" t="n">
-        <v>-488000000</v>
-      </c>
-      <c r="K26" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6489000000</v>
-      </c>
-      <c r="M26" t="n">
-        <v>6489000000</v>
-      </c>
-      <c r="N26" t="n">
-        <v>6493000000</v>
-      </c>
-      <c r="P26" t="n">
-        <v>8274000000</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-204000000</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1686000000</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3433000000</v>
-      </c>
-      <c r="U26" t="n">
-        <v>42697000000</v>
-      </c>
-      <c r="V26" t="n">
-        <v>-39000000</v>
-      </c>
-      <c r="W26" t="n">
-        <v>50971000000</v>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>Caterpillar Inc</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>Caterpillar</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>CAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>31621000000</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>44196</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4835000000</v>
-      </c>
-      <c r="G27" t="n">
-        <v>10127000000</v>
-      </c>
-      <c r="H27" t="n">
-        <v>4009000000</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1006000000</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-514000000</v>
-      </c>
-      <c r="K27" t="n">
-        <v>47000000</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2998000000</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2998000000</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3003000000</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4835000000</v>
-      </c>
-      <c r="R27" t="n">
-        <v>-80000000</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1415000000</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3957000000</v>
-      </c>
-      <c r="U27" t="n">
-        <v>36913000000</v>
-      </c>
-      <c r="V27" t="n">
-        <v>-826000000</v>
-      </c>
-      <c r="W27" t="n">
-        <v>41748000000</v>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>Caterpillar Inc</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>Caterpillar</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>CAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>39338000000</v>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>43830</v>
-      </c>
-      <c r="D28" t="n">
-        <v>8113000000</v>
-      </c>
-      <c r="G28" t="n">
-        <v>14462000000</v>
-      </c>
-      <c r="H28" t="n">
-        <v>7840000000</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1746000000</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-421000000</v>
-      </c>
-      <c r="K28" t="n">
-        <v>41000000</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6093000000</v>
-      </c>
-      <c r="M28" t="n">
-        <v>6093000000</v>
-      </c>
-      <c r="N28" t="n">
-        <v>6094000000</v>
-      </c>
-      <c r="P28" t="n">
-        <v>8113000000</v>
-      </c>
-      <c r="R28" t="n">
-        <v>-140000000</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1693000000</v>
-      </c>
-      <c r="T28" t="n">
-        <v>4796000000</v>
-      </c>
-      <c r="U28" t="n">
-        <v>45687000000</v>
-      </c>
-      <c r="V28" t="n">
-        <v>-273000000</v>
-      </c>
-      <c r="W28" t="n">
-        <v>53800000000</v>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>Caterpillar Inc</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>Caterpillar</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>CAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>39819000000</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>43465</v>
-      </c>
-      <c r="D29" t="n">
-        <v>8336000000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>14903000000</v>
-      </c>
-      <c r="H29" t="n">
-        <v>7846000000</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1698000000</v>
-      </c>
-      <c r="J29" t="n">
-        <v>-404000000</v>
-      </c>
-      <c r="K29" t="n">
-        <v>41000000</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6147000000</v>
-      </c>
-      <c r="M29" t="n">
-        <v>6147000000</v>
-      </c>
-      <c r="N29" t="n">
-        <v>6148000000</v>
-      </c>
-      <c r="P29" t="n">
-        <v>8336000000</v>
-      </c>
-      <c r="R29" t="n">
-        <v>-89000000</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1850000000</v>
-      </c>
-      <c r="T29" t="n">
-        <v>4806000000</v>
-      </c>
-      <c r="U29" t="n">
-        <v>46386000000</v>
-      </c>
-      <c r="V29" t="n">
-        <v>-490000000</v>
-      </c>
-      <c r="W29" t="n">
-        <v>54722000000</v>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Caterpillar Inc</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>Caterpillar</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>CAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>35209000000</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>44555</v>
-      </c>
-      <c r="D30" t="n">
-        <v>22082000000</v>
-      </c>
-      <c r="G30" t="n">
-        <v>43815000000</v>
-      </c>
-      <c r="H30" t="n">
-        <v>21703000000</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1835000000</v>
-      </c>
-      <c r="J30" t="n">
-        <v>-597000000</v>
-      </c>
-      <c r="L30" t="n">
-        <v>19868000000</v>
-      </c>
-      <c r="M30" t="n">
-        <v>19868000000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>19868000000</v>
-      </c>
-      <c r="P30" t="n">
-        <v>22082000000</v>
-      </c>
-      <c r="S30" t="n">
-        <v>15190000000</v>
-      </c>
-      <c r="T30" t="n">
-        <v>6543000000</v>
-      </c>
-      <c r="U30" t="n">
-        <v>56942000000</v>
-      </c>
-      <c r="V30" t="n">
-        <v>-379000000</v>
-      </c>
-      <c r="W30" t="n">
-        <v>79024000000</v>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>Intel Corporation</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>INTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>34255000000</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>44191</v>
-      </c>
-      <c r="D31" t="n">
-        <v>23876000000</v>
-      </c>
-      <c r="G31" t="n">
-        <v>43612000000</v>
-      </c>
-      <c r="H31" t="n">
-        <v>25078000000</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4179000000</v>
-      </c>
-      <c r="J31" t="n">
-        <v>-629000000</v>
-      </c>
-      <c r="L31" t="n">
-        <v>20899000000</v>
-      </c>
-      <c r="M31" t="n">
-        <v>20899000000</v>
-      </c>
-      <c r="N31" t="n">
-        <v>20899000000</v>
-      </c>
-      <c r="P31" t="n">
-        <v>23876000000</v>
-      </c>
-      <c r="S31" t="n">
-        <v>13556000000</v>
-      </c>
-      <c r="T31" t="n">
-        <v>6180000000</v>
-      </c>
-      <c r="U31" t="n">
-        <v>53991000000</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1202000000</v>
-      </c>
-      <c r="W31" t="n">
-        <v>77867000000</v>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>Intel Corporation</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>INTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>29825000000</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>43827</v>
-      </c>
-      <c r="D32" t="n">
-        <v>22428000000</v>
-      </c>
-      <c r="G32" t="n">
-        <v>42140000000</v>
-      </c>
-      <c r="H32" t="n">
-        <v>24058000000</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3010000000</v>
-      </c>
-      <c r="J32" t="n">
-        <v>-489000000</v>
-      </c>
-      <c r="L32" t="n">
-        <v>21048000000</v>
-      </c>
-      <c r="M32" t="n">
-        <v>21048000000</v>
-      </c>
-      <c r="N32" t="n">
-        <v>21048000000</v>
-      </c>
-      <c r="P32" t="n">
-        <v>22428000000</v>
-      </c>
-      <c r="R32" t="n">
-        <v>393000000</v>
-      </c>
-      <c r="S32" t="n">
-        <v>13362000000</v>
-      </c>
-      <c r="T32" t="n">
-        <v>6350000000</v>
-      </c>
-      <c r="U32" t="n">
-        <v>49537000000</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1630000000</v>
-      </c>
-      <c r="W32" t="n">
-        <v>71965000000</v>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>Intel Corporation</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>INTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>27111000000</v>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>43463</v>
-      </c>
-      <c r="D33" t="n">
-        <v>23244000000</v>
-      </c>
-      <c r="G33" t="n">
-        <v>43737000000</v>
-      </c>
-      <c r="H33" t="n">
-        <v>23317000000</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2264000000</v>
-      </c>
-      <c r="J33" t="n">
-        <v>-468000000</v>
-      </c>
-      <c r="L33" t="n">
-        <v>21053000000</v>
-      </c>
-      <c r="M33" t="n">
-        <v>21053000000</v>
-      </c>
-      <c r="N33" t="n">
-        <v>21053000000</v>
-      </c>
-      <c r="P33" t="n">
-        <v>23244000000</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-72000000</v>
-      </c>
-      <c r="S33" t="n">
-        <v>13543000000</v>
-      </c>
-      <c r="T33" t="n">
-        <v>6950000000</v>
-      </c>
-      <c r="U33" t="n">
-        <v>47604000000</v>
-      </c>
-      <c r="V33" t="n">
-        <v>73000000</v>
-      </c>
-      <c r="W33" t="n">
-        <v>70848000000</v>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>Intel Corporation</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>INTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>62650000000</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>44742</v>
-      </c>
-      <c r="D34" t="n">
-        <v>83383000000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>135620000000</v>
-      </c>
-      <c r="H34" t="n">
-        <v>83716000000</v>
-      </c>
-      <c r="I34" t="n">
-        <v>10978000000</v>
-      </c>
-      <c r="J34" t="n">
-        <v>-2047000000</v>
-      </c>
-      <c r="L34" t="n">
-        <v>72738000000</v>
-      </c>
-      <c r="M34" t="n">
-        <v>72738000000</v>
-      </c>
-      <c r="N34" t="n">
-        <v>72738000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>83383000000</v>
-      </c>
-      <c r="S34" t="n">
-        <v>24512000000</v>
-      </c>
-      <c r="T34" t="n">
-        <v>27725000000</v>
-      </c>
-      <c r="U34" t="n">
-        <v>114887000000</v>
-      </c>
-      <c r="V34" t="n">
-        <v>333000000</v>
-      </c>
-      <c r="W34" t="n">
-        <v>198270000000</v>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>Microsoft Corporation</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Microsoft</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>52232000000</v>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>44377</v>
-      </c>
-      <c r="D35" t="n">
-        <v>69916000000</v>
-      </c>
-      <c r="G35" t="n">
-        <v>115856000000</v>
-      </c>
-      <c r="H35" t="n">
-        <v>71102000000</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9831000000</v>
-      </c>
-      <c r="J35" t="n">
-        <v>-2330000000</v>
-      </c>
-      <c r="L35" t="n">
-        <v>61271000000</v>
-      </c>
-      <c r="M35" t="n">
-        <v>61271000000</v>
-      </c>
-      <c r="N35" t="n">
-        <v>61271000000</v>
-      </c>
-      <c r="P35" t="n">
-        <v>69916000000</v>
-      </c>
-      <c r="S35" t="n">
-        <v>20716000000</v>
-      </c>
-      <c r="T35" t="n">
-        <v>25224000000</v>
-      </c>
-      <c r="U35" t="n">
-        <v>98172000000</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1186000000</v>
-      </c>
-      <c r="W35" t="n">
-        <v>168088000000</v>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>Microsoft Corporation</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>Microsoft</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>46078000000</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>44012</v>
-      </c>
-      <c r="D36" t="n">
-        <v>52959000000</v>
-      </c>
-      <c r="G36" t="n">
-        <v>96937000000</v>
-      </c>
-      <c r="H36" t="n">
-        <v>53036000000</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8755000000</v>
-      </c>
-      <c r="J36" t="n">
-        <v>-2591000000</v>
-      </c>
-      <c r="L36" t="n">
-        <v>44281000000</v>
-      </c>
-      <c r="M36" t="n">
-        <v>44281000000</v>
-      </c>
-      <c r="N36" t="n">
-        <v>44281000000</v>
-      </c>
-      <c r="P36" t="n">
-        <v>52959000000</v>
-      </c>
-      <c r="S36" t="n">
-        <v>19269000000</v>
-      </c>
-      <c r="T36" t="n">
-        <v>24709000000</v>
-      </c>
-      <c r="U36" t="n">
-        <v>90056000000</v>
-      </c>
-      <c r="V36" t="n">
-        <v>77000000</v>
-      </c>
-      <c r="W36" t="n">
-        <v>143015000000</v>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>Microsoft Corporation</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>Microsoft</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>42910000000</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>43646</v>
-      </c>
-      <c r="D37" t="n">
-        <v>42959000000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>82933000000</v>
-      </c>
-      <c r="H37" t="n">
-        <v>43688000000</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4448000000</v>
-      </c>
-      <c r="J37" t="n">
-        <v>-2686000000</v>
-      </c>
-      <c r="L37" t="n">
-        <v>39240000000</v>
-      </c>
-      <c r="M37" t="n">
-        <v>39240000000</v>
-      </c>
-      <c r="N37" t="n">
-        <v>39240000000</v>
-      </c>
-      <c r="P37" t="n">
-        <v>42959000000</v>
-      </c>
-      <c r="S37" t="n">
-        <v>16876000000</v>
-      </c>
-      <c r="T37" t="n">
-        <v>23098000000</v>
-      </c>
-      <c r="U37" t="n">
-        <v>82884000000</v>
-      </c>
-      <c r="V37" t="n">
-        <v>729000000</v>
-      </c>
-      <c r="W37" t="n">
-        <v>125843000000</v>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>Microsoft Corporation</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>Microsoft</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>9099000000</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>44561</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
-        <v>2081000000</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
-        <v>3053000000</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1199000000</v>
-      </c>
-      <c r="I38" t="n">
-        <v>629000000</v>
-      </c>
-      <c r="J38" t="n">
-        <v>-195000000</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1612000000</v>
-      </c>
-      <c r="L38" t="n">
-        <v>429000000</v>
-      </c>
-      <c r="M38" t="n">
-        <v>429000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>570000000</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="n">
-        <v>2081000000</v>
-      </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="S38" t="n">
-        <v>31000000</v>
-      </c>
-      <c r="T38" t="n">
-        <v>274000000</v>
-      </c>
-      <c r="U38" t="n">
-        <v>10071000000</v>
-      </c>
-      <c r="V38" t="n">
-        <v>-882000000</v>
-      </c>
-      <c r="W38" t="n">
-        <v>12152000000</v>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>Alcoa Corp</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>Alcoa</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>7924000000</v>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>44196</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
-        <v>371000000</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="n">
-        <v>1362000000</v>
-      </c>
-      <c r="H39" t="n">
-        <v>173000000</v>
-      </c>
-      <c r="I39" t="n">
-        <v>187000000</v>
-      </c>
-      <c r="J39" t="n">
-        <v>-146000000</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1705000000</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-170000000</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-170000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-14000000</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="n">
-        <v>371000000</v>
-      </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="n">
-        <v>-3000000</v>
-      </c>
-      <c r="S39" t="n">
-        <v>27000000</v>
-      </c>
-      <c r="T39" t="n">
-        <v>314000000</v>
-      </c>
-      <c r="U39" t="n">
-        <v>8915000000</v>
-      </c>
-      <c r="V39" t="n">
-        <v>-198000000</v>
-      </c>
-      <c r="W39" t="n">
-        <v>9286000000</v>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>Alcoa Corp</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>Alcoa</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>8512000000</v>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>43830</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
-        <v>748000000</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>1921000000</v>
-      </c>
-      <c r="H40" t="n">
-        <v>-438000000</v>
-      </c>
-      <c r="I40" t="n">
-        <v>415000000</v>
-      </c>
-      <c r="J40" t="n">
-        <v>-121000000</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1774000000</v>
-      </c>
-      <c r="L40" t="n">
-        <v>-1125000000</v>
-      </c>
-      <c r="M40" t="n">
-        <v>-1125000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-853000000</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="n">
-        <v>748000000</v>
-      </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="n">
-        <v>38000000</v>
-      </c>
-      <c r="S40" t="n">
-        <v>27000000</v>
-      </c>
-      <c r="T40" t="n">
-        <v>395000000</v>
-      </c>
-      <c r="U40" t="n">
-        <v>9685000000</v>
-      </c>
-      <c r="V40" t="n">
-        <v>-1186000000</v>
-      </c>
-      <c r="W40" t="n">
-        <v>10433000000</v>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>Alcoa Corp</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>Alcoa</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>10050000000</v>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>43465</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
-        <v>2077000000</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
-        <v>3353000000</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1625000000</v>
-      </c>
-      <c r="I41" t="n">
-        <v>732000000</v>
-      </c>
-      <c r="J41" t="n">
-        <v>-122000000</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1970000000</v>
-      </c>
-      <c r="L41" t="n">
-        <v>250000000</v>
-      </c>
-      <c r="M41" t="n">
-        <v>250000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>893000000</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
-        <v>2077000000</v>
-      </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="n">
-        <v>125000000</v>
-      </c>
-      <c r="S41" t="n">
-        <v>31000000</v>
-      </c>
-      <c r="T41" t="n">
-        <v>387000000</v>
-      </c>
-      <c r="U41" t="n">
-        <v>11326000000</v>
-      </c>
-      <c r="V41" t="n">
-        <v>-452000000</v>
-      </c>
-      <c r="W41" t="n">
-        <v>13403000000</v>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>Alcoa Corp</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>Alcoa</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>AA</t>
         </is>
       </c>
     </row>
